--- a/Dev Log.xlsx
+++ b/Dev Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -104,9 +104,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>Update</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>gen form create, harusnya sekalian update/view</t>
+  </si>
+  <si>
+    <t>update form create, baru khusus create</t>
+  </si>
+  <si>
+    <t>Additional Update</t>
   </si>
 </sst>
 </file>
@@ -251,6 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,12 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,34 +552,34 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -605,7 +608,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>43669</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -623,7 +626,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -679,7 +682,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>43690</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -699,7 +702,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -715,10 +718,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>43692</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -733,8 +736,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
@@ -748,14 +751,14 @@
         <v>43693</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
@@ -774,7 +777,7 @@
       <c r="A12" s="2">
         <v>43693</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -782,7 +785,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -790,24 +793,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>

--- a/Dev Log.xlsx
+++ b/Dev Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Additional Update</t>
+  </si>
+  <si>
+    <t>form create, structure</t>
+  </si>
+  <si>
+    <t>encode/decode pakai yg sederhana, yg kompleks ga support php 7</t>
   </si>
 </sst>
 </file>
@@ -552,12 +558,12 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -824,21 +830,35 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
